--- a/Data/Population-households-density-by-sub-county.xlsx
+++ b/Data/Population-households-density-by-sub-county.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTE-Datathon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75F5DC1-8FD7-4F5B-9292-6FA73F6FB5F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pop by Sex and County" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pop by Sex and County'!$A$4:$I$231</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1260,10 +1264,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1364,44 +1368,44 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1410,22 +1414,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="9"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1702,13 +1706,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K404"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13344,6 +13350,7 @@
       <c r="I404" s="18"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:I231" xr:uid="{2E0FDC4A-9E4E-4B8D-B179-913F0EF8E650}"/>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:D3"/>
@@ -13354,7 +13361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
